--- a/Python_Test/PySample1/etc/SampleInput_2016.xlsx
+++ b/Python_Test/PySample1/etc/SampleInput_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="0" windowWidth="21480" windowHeight="13875" activeTab="2"/>
+    <workbookView xWindow="3540" yWindow="0" windowWidth="21480" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="January_2016" sheetId="2" r:id="rId1"/>
@@ -393,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
